--- a/behavior-trees-dataset/raw-model-data/py_trees_ros/py_trees_ros_model_stats.xlsx
+++ b/behavior-trees-dataset/raw-model-data/py_trees_ros/py_trees_ros_model_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior trees dataset\raw-model-data\py_trees_ros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior-trees-dataset\raw-model-data\py_trees_ros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAD6773-E114-4620-B57D-A956AE585AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD896CFD-1E83-4869-887C-388C545E61D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="-3885" windowWidth="16995" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1080" windowWidth="17832" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PyTreesRos_model_analysis" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>RepoProjectName</t>
-  </si>
-  <si>
     <t>count_Sequence</t>
   </si>
   <si>
@@ -343,6 +337,12 @@
   </si>
   <si>
     <t>refills-project_refills_second_review</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1216,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,114 +1245,114 @@
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1649,16 +1649,16 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1751,16 +1751,16 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1853,16 +1853,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1955,16 +1955,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2159,16 +2159,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -2261,16 +2261,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2363,16 +2363,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2465,16 +2465,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2567,16 +2567,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2669,16 +2669,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2771,16 +2771,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2873,16 +2873,16 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2975,16 +2975,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3179,16 +3179,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -3281,16 +3281,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <f>SUM(E2:E21)</f>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ref="E24:J24" si="4">E23/153</f>
@@ -3522,7 +3522,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3549,63 +3549,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <f>SUM(PyTreesRos_model_analysis!E6:F6)</f>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <f>SUM(PyTreesRos_model_analysis!E19:F20)</f>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <f>SUM(PyTreesRos_model_analysis!E18:F18)</f>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <f>SUM(PyTreesRos_model_analysis!E16:F17)</f>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <f>SUM(PyTreesRos_model_analysis!E2:F2)</f>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <f>SUM(PyTreesRos_model_analysis!E7:F14)</f>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <f>SUM(PyTreesRos_model_analysis!E21:F21)</f>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <f>SUM(PyTreesRos_model_analysis!E3:F5)</f>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <f>SUM(PyTreesRos_model_analysis!E15:F15)</f>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:H12" si="9">SUM(B2:B10)</f>

--- a/behavior-trees-dataset/raw-model-data/py_trees_ros/py_trees_ros_model_stats.xlsx
+++ b/behavior-trees-dataset/raw-model-data/py_trees_ros/py_trees_ros_model_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior-trees-dataset\raw-model-data\py_trees_ros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD896CFD-1E83-4869-887C-388C545E61D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E6F4C5-8B03-4570-B5FA-C48576810A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1080" windowWidth="17832" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PyTreesRos_model_analysis" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>count_Sequence</t>
   </si>
@@ -99,18 +99,12 @@
     <t>braineniac_robotics-player_trees.py</t>
   </si>
   <si>
-    <t>braineniac_robotics-player</t>
-  </si>
-  <si>
     <t>robotics-player model_1</t>
   </si>
   <si>
     <t>jotix16_Robotics-Behaviour-Planning_bt_students.py</t>
   </si>
   <si>
-    <t>jotix16_Robotics-Behaviour-Planning</t>
-  </si>
-  <si>
     <t>Robotics-Behaviour-Planning model_1</t>
   </si>
   <si>
@@ -129,18 +123,12 @@
     <t>KKalem_sam_march_sam_tree_march.py</t>
   </si>
   <si>
-    <t>KKalem_sam_march</t>
-  </si>
-  <si>
     <t>sam_march model_1</t>
   </si>
   <si>
     <t>peterheim1_gizmo_five.py</t>
   </si>
   <si>
-    <t>peterheim1_gizmo</t>
-  </si>
-  <si>
     <t>gizmo model_1</t>
   </si>
   <si>
@@ -189,18 +177,12 @@
     <t>refills-project_refills_second_review_brain.py</t>
   </si>
   <si>
-    <t>efills-project_refills_second_review</t>
-  </si>
-  <si>
     <t>refills_second_review model_1</t>
   </si>
   <si>
     <t>samiamlabs_dyno_drone_parcel_delivery.py</t>
   </si>
   <si>
-    <t>samiamlabs_dyno</t>
-  </si>
-  <si>
     <t>dyno model_1</t>
   </si>
   <si>
@@ -213,18 +195,12 @@
     <t>simutisernestas_mobile_robot_project_bt_students.py</t>
   </si>
   <si>
-    <t>simutisernestas_mobile_robot_project</t>
-  </si>
-  <si>
     <t>mobile_robot_project model_1</t>
   </si>
   <si>
     <t>smarc-project_smarc_missions_behaviour_tree.py</t>
   </si>
   <si>
-    <t>smarc-project_smarc_missions</t>
-  </si>
-  <si>
     <t>smarc_missions model_1</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>Taospirit_roborts_project_decision_node.py</t>
   </si>
   <si>
-    <t>Taospirit_roborts_project</t>
-  </si>
-  <si>
     <t>roborts_project model_1</t>
   </si>
   <si>
@@ -336,13 +309,43 @@
     <t>Total</t>
   </si>
   <si>
-    <t>refills-project_refills_second_review</t>
-  </si>
-  <si>
     <t>repository</t>
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>braineniac/robotics-player</t>
+  </si>
+  <si>
+    <t>jotix16/Robotics-Behaviour-Planning</t>
+  </si>
+  <si>
+    <t>KKalem/sam_march</t>
+  </si>
+  <si>
+    <t>peterheim1/gizmo</t>
+  </si>
+  <si>
+    <t>efills-project/refills_second_review</t>
+  </si>
+  <si>
+    <t>samiamlabs/dyno</t>
+  </si>
+  <si>
+    <t>simutisernestas/mobile_robot_project</t>
+  </si>
+  <si>
+    <t>smarc-project/smarc_missions</t>
+  </si>
+  <si>
+    <t>Taospirit/roborts_project</t>
+  </si>
+  <si>
+    <t>Kkalem/sam_march</t>
+  </si>
+  <si>
+    <t>refills-projectrefills_second_review</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,16 +1248,16 @@
   <sheetData>
     <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -1311,22 +1314,22 @@
         <v>17</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>19</v>
@@ -1335,10 +1338,10 @@
         <v>18</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -1346,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1445,16 +1448,16 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1547,16 +1550,16 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1649,16 +1652,16 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1751,16 +1754,16 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1853,16 +1856,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1955,16 +1958,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2057,16 +2060,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2159,16 +2162,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -2261,16 +2264,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2363,16 +2366,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2465,16 +2468,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2567,16 +2570,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2669,16 +2672,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2771,16 +2774,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2873,16 +2876,16 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2975,16 +2978,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3077,16 +3080,16 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3179,16 +3182,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -3281,16 +3284,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3417,7 +3420,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <f>SUM(E2:E21)</f>
@@ -3458,7 +3461,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ref="E24:J24" si="4">E23/153</f>
@@ -3522,7 +3525,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3549,63 +3552,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <f>SUM(PyTreesRos_model_analysis!E6:F6)</f>
@@ -3676,7 +3679,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <f>SUM(PyTreesRos_model_analysis!E19:F20)</f>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <f>SUM(PyTreesRos_model_analysis!E18:F18)</f>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <f>SUM(PyTreesRos_model_analysis!E16:F17)</f>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <f>SUM(PyTreesRos_model_analysis!E2:F2)</f>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <f>SUM(PyTreesRos_model_analysis!E7:F14)</f>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <f>SUM(PyTreesRos_model_analysis!E21:F21)</f>
@@ -4102,7 +4105,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <f>SUM(PyTreesRos_model_analysis!E3:F5)</f>
@@ -4173,7 +4176,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <f>SUM(PyTreesRos_model_analysis!E15:F15)</f>
@@ -4264,7 +4267,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:H12" si="9">SUM(B2:B10)</f>
